--- a/src/main/java/week3/arithmetic/doc/Арифметическое выражение.xlsx
+++ b/src/main/java/week3/arithmetic/doc/Арифметическое выражение.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Projects/my/coursera-sport/src/main/java/week3/arithmetic/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE79080-A8FB-2D40-9F05-10B2DB95B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4999D39E-7EE5-0643-8D7D-85B16E30AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2800" windowWidth="27640" windowHeight="16860" xr2:uid="{40B4464C-52E7-664C-94F6-E88D2C26DF1B}"/>
+    <workbookView xWindow="13580" yWindow="3160" windowWidth="27640" windowHeight="16860" xr2:uid="{40B4464C-52E7-664C-94F6-E88D2C26DF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,295 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+  <si>
+    <t>Сумма 10, будем искать множество в сумме дающее 5</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{3}</t>
+  </si>
+  <si>
+    <t>{3,1}</t>
+  </si>
+  <si>
+    <t>{3,1,1}</t>
+  </si>
+  <si>
+    <t>{3,1,1,2}</t>
+  </si>
+  <si>
+    <t>{3,1,1,2,2}</t>
+  </si>
+  <si>
+    <t>{3,1,1,2,2,1}</t>
+  </si>
+  <si>
+    <t>3,1,1,2,2,1 исходное множество</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) принимает значение </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 
+если среди { </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ..., </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> } существует такое подмножество, 
+элементы которого в сумме дают </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> и </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> в противном случае.</t>
+    </r>
+  </si>
+  <si>
+    <t>S(0)</t>
+  </si>
+  <si>
+    <t>S(1)</t>
+  </si>
+  <si>
+    <t>S(2)</t>
+  </si>
+  <si>
+    <t>S(3)</t>
+  </si>
+  <si>
+    <t>S(4)</t>
+  </si>
+  <si>
+    <t>S(5)</t>
+  </si>
+  <si>
+    <t>S(6)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>j</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ось j</t>
+  </si>
+  <si>
+    <t>Можем ли мы набрать 1 с помощью элементов в столбце j ?</t>
+  </si>
+  <si>
+    <t>Можем ли мы набрать 2 ?</t>
+  </si>
+  <si>
+    <t>Если с помощью числа Xj можно набрать I, то должно быть верно что</t>
+  </si>
+  <si>
+    <r>
+      <t>то можно набрать i-X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на множестве без него</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,19 +329,118 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -64,8 +449,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,12 +781,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C8E156-13EE-FE4C-8BB6-4896DA4BFC60}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="74" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>